--- a/fhir/ig/r2bo/0.1.1-ballot/ValueSet-r2bo-procedimientos-biopsias-VS.xlsx
+++ b/fhir/ig/r2bo/0.1.1-ballot/ValueSet-r2bo-procedimientos-biopsias-VS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T16:54:01-03:00</t>
+    <t>2025-12-23T17:10:55-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/r2bo/0.1.1-ballot/ValueSet-r2bo-procedimientos-biopsias-VS.xlsx
+++ b/fhir/ig/r2bo/0.1.1-ballot/ValueSet-r2bo-procedimientos-biopsias-VS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-23T17:10:55-03:00</t>
+    <t>2026-01-07T10:16:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
